--- a/Assets/CustomFolder - Augment/AugmentDataImport/AugmentData.xlsx
+++ b/Assets/CustomFolder - Augment/AugmentDataImport/AugmentData.xlsx
@@ -330,161 +330,161 @@
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="1">
+      <c r="A2" s="1">
         <v>1.0</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E2" s="1">
+        <v>5.0</v>
+      </c>
       <c r="F2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
         <v>5.0</v>
       </c>
-      <c r="G2" s="1">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="1">
         <v>2.0</v>
       </c>
-      <c r="H2" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.0</v>
-      </c>
       <c r="I6" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="J6" s="1">
         <v>0.0</v>
       </c>
     </row>
